--- a/resultados/comportamentoMMQ_slot11.xlsx
+++ b/resultados/comportamentoMMQ_slot11.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dwt_1005.mtx</t>
+          <t>fidap005.mtx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.1914603101897192</v>
+        <v>0.693997343041822</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.80888731749563</v>
+        <v>10885.58430967119</v>
       </c>
       <c r="H2" t="n">
-        <v>94.36551789547548</v>
+        <v>3982785.614747609</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dwt_1005.mtx</t>
+          <t>fidap005.mtx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.4343724091458055</v>
+        <v>0.8977780927497544</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -528,10 +528,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-63.56239519754557</v>
+        <v>248594.0757340083</v>
       </c>
       <c r="H3" t="n">
-        <v>150.1713170375452</v>
+        <v>3491281.330207203</v>
       </c>
     </row>
     <row r="4">
@@ -540,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dwt_1005.mtx</t>
+          <t>fidap005.mtx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1462201509385392</v>
+        <v>0.6855473724888353</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -560,10 +560,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.07193047568456037</v>
+        <v>0.002614121743986262</v>
       </c>
       <c r="H4" t="n">
-        <v>33.39516070064669</v>
+        <v>3983015.340353712</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dwt_1005.mtx</t>
+          <t>fidap005.mtx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.1462201509385392</v>
+        <v>0.6855473724888353</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9305955925837057</v>
+        <v>1.002617541539504</v>
       </c>
       <c r="H5" t="n">
-        <v>33.39516070064669</v>
+        <v>3983015.340353712</v>
       </c>
     </row>
     <row r="6">
@@ -604,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dwt_1005.mtx</t>
+          <t>fidap005.mtx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.3608978739995501</v>
+        <v>0.8931493833814699</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -624,10 +624,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.6106900467812878</v>
+        <v>0.05991044653095323</v>
       </c>
       <c r="H6" t="n">
-        <v>58.42778682920226</v>
+        <v>3537273.563191011</v>
       </c>
     </row>
     <row r="7">
@@ -636,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dwt_1005.mtx</t>
+          <t>fidap005.mtx</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.4362267568811553</v>
+        <v>0.9680559607573197</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>193.0799667258895</v>
+        <v>3669012.730238768</v>
       </c>
       <c r="G7" t="n">
-        <v>-44.82680562890092</v>
+        <v>43233.30436212925</v>
       </c>
       <c r="H7" t="n">
-        <v>2.467861220760353</v>
+        <v>-646.9544010491591</v>
       </c>
     </row>
     <row r="8">
@@ -668,7 +668,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>dwt_1005.mtx</t>
+          <t>fidap005.mtx</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2226453944152598</v>
+        <v>0.01293435480877391</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -688,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.5510226917237</v>
+        <v>-76909.56717716876</v>
       </c>
       <c r="H8" t="n">
-        <v>107.7569779688142</v>
+        <v>6515955.007818108</v>
       </c>
     </row>
     <row r="9">
@@ -700,7 +700,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>dwt_1005.mtx</t>
+          <t>fidap005.mtx</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.4693082424911773</v>
+        <v>0.005026103425384141</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-73.07361116195617</v>
+        <v>-711314.9450195871</v>
       </c>
       <c r="H9" t="n">
-        <v>160.8868254948276</v>
+        <v>7125611.509068588</v>
       </c>
     </row>
     <row r="10">
@@ -732,7 +732,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>dwt_1005.mtx</t>
+          <t>fidap005.mtx</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.1775488873537645</v>
+        <v>0.001578599958028633</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09927670797958796</v>
+        <v>0.002213819410285608</v>
       </c>
       <c r="H10" t="n">
-        <v>38.5358942724958</v>
+        <v>4269983.749947111</v>
       </c>
     </row>
     <row r="11">
@@ -764,7 +764,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>dwt_1005.mtx</t>
+          <t>fidap005.mtx</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.1775488873537645</v>
+        <v>0.001578599958028633</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -784,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9054921164607262</v>
+        <v>1.002216271717798</v>
       </c>
       <c r="H11" t="n">
-        <v>38.5358942724958</v>
+        <v>4269983.749947111</v>
       </c>
     </row>
     <row r="12">
@@ -796,7 +796,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>dwt_1005.mtx</t>
+          <t>fidap005.mtx</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.3985961260419459</v>
+        <v>0.009104862056452978</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.7095756546855546</v>
+        <v>0.07888257397169395</v>
       </c>
       <c r="H12" t="n">
-        <v>65.90152559847661</v>
+        <v>3573283.453648407</v>
       </c>
     </row>
     <row r="13">
@@ -828,7 +828,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>dwt_1005.mtx</t>
+          <t>fidap005.mtx</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.4919925020231122</v>
+        <v>0.02356760237874592</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>222.9816833990915</v>
+        <v>3911349.547654379</v>
       </c>
       <c r="G13" t="n">
-        <v>-59.93303930469965</v>
+        <v>287735.1972457535</v>
       </c>
       <c r="H13" t="n">
-        <v>3.79861666253661</v>
+        <v>-10418.42184065492</v>
       </c>
     </row>
     <row r="14">
@@ -860,7 +860,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>dwt_1007.mtx</t>
+          <t>gr_30_30.mtx</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.04810633649832054</v>
+        <v>0.4751600756931221</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4173945630643313</v>
+        <v>0.006739676600440046</v>
       </c>
       <c r="H14" t="n">
-        <v>26.15877786650674</v>
+        <v>11.30071732523896</v>
       </c>
     </row>
     <row r="15">
@@ -892,7 +892,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dwt_1007.mtx</t>
+          <t>gr_30_30.mtx</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2073295635813791</v>
+        <v>0.7847351381288329</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-17.05823880316246</v>
+        <v>0.3668897290933194</v>
       </c>
       <c r="H15" t="n">
-        <v>67.11772174479249</v>
+        <v>10.28027848245955</v>
       </c>
     </row>
     <row r="16">
@@ -924,7 +924,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>dwt_1007.mtx</t>
+          <t>gr_30_30.mtx</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.04597138916101522</v>
+        <v>0.4589991733804813</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.005293682315558133</v>
+        <v>0.0005912934354574122</v>
       </c>
       <c r="H16" t="n">
-        <v>11.08488661710731</v>
+        <v>11.29314559557203</v>
       </c>
     </row>
     <row r="17">
@@ -956,7 +956,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>dwt_1007.mtx</t>
+          <t>gr_30_30.mtx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.04597138916101522</v>
+        <v>0.4589991733804813</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -976,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9947203045291497</v>
+        <v>1.000591468283881</v>
       </c>
       <c r="H17" t="n">
-        <v>11.08488661710731</v>
+        <v>11.29314559557203</v>
       </c>
     </row>
     <row r="18">
@@ -988,7 +988,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>dwt_1007.mtx</t>
+          <t>gr_30_30.mtx</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.2021213992007385</v>
+        <v>0.7684288607494869</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1008,10 +1008,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.2185134314269186</v>
+        <v>0.03240812145358093</v>
       </c>
       <c r="H18" t="n">
-        <v>18.76335657541556</v>
+        <v>10.31728226696041</v>
       </c>
     </row>
     <row r="19">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>dwt_1007.mtx</t>
+          <t>gr_30_30.mtx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.1234039776740634</v>
+        <v>0.7617689471342438</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>47.75444717469875</v>
+        <v>10.83734522677404</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.47412497336833</v>
+        <v>0.02868986030933634</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03317307113393545</v>
+        <v>-0.0001860185060075957</v>
       </c>
     </row>
     <row r="20">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>dwt_1007.mtx</t>
+          <t>gr_30_30.mtx</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.06497571115878369</v>
+        <v>0.6140121955618729</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.7633906204288774</v>
+        <v>0.01445828820708104</v>
       </c>
       <c r="H20" t="n">
-        <v>32.3206211872501</v>
+        <v>11.31824061810996</v>
       </c>
     </row>
     <row r="21">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>dwt_1007.mtx</t>
+          <t>gr_30_30.mtx</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.2454768006262026</v>
+        <v>0.8439995573015708</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-22.09721464729859</v>
+        <v>0.3634898826266594</v>
       </c>
       <c r="H21" t="n">
-        <v>78.16884308910443</v>
+        <v>10.56654784669855</v>
       </c>
     </row>
     <row r="22">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>dwt_1007.mtx</t>
+          <t>gr_30_30.mtx</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.06312739278246765</v>
+        <v>0.6028471675666579</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.009760683508450168</v>
+        <v>0.001253504937225133</v>
       </c>
       <c r="H22" t="n">
-        <v>12.0191173347858</v>
+        <v>11.31652371167457</v>
       </c>
     </row>
     <row r="23">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>dwt_1007.mtx</t>
+          <t>gr_30_30.mtx</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.06312739278246765</v>
+        <v>0.6028471675666579</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1168,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.990286797355359</v>
+        <v>1.001254290902909</v>
       </c>
       <c r="H23" t="n">
-        <v>12.0191173347858</v>
+        <v>11.31652371167457</v>
       </c>
     </row>
     <row r="24">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>dwt_1007.mtx</t>
+          <t>gr_30_30.mtx</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2410493609534916</v>
+        <v>0.8344806186379682</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2840437940757205</v>
+        <v>0.03162448067988148</v>
       </c>
       <c r="H24" t="n">
-        <v>21.69417797791547</v>
+        <v>10.59885600589429</v>
       </c>
     </row>
     <row r="25">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>dwt_1007.mtx</t>
+          <t>gr_30_30.mtx</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.1641893612604048</v>
+        <v>0.8712553327746105</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1229,13 +1229,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>61.60418469056958</v>
+        <v>10.8664791259852</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.501717876171791</v>
+        <v>0.05799508875688034</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08126798382049814</v>
+        <v>-0.0008062370472185015</v>
       </c>
     </row>
     <row r="26">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>herman4.mtx</t>
+          <t>05r0100.mtx</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.2047526109533658</v>
+        <v>0.9447591769470304</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1264,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1311100879747138</v>
+        <v>-0.001339923471108601</v>
       </c>
       <c r="H26" t="n">
-        <v>57.30749104563014</v>
+        <v>12.71077434635472</v>
       </c>
     </row>
     <row r="27">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>herman4.mtx</t>
+          <t>05r0100.mtx</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.5469473632792226</v>
+        <v>0.9160963813348612</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>6.698712661956514</v>
+        <v>-0.1052122507166789</v>
       </c>
       <c r="H27" t="n">
-        <v>39.56269488149096</v>
+        <v>13.02802165554131</v>
       </c>
     </row>
     <row r="28">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>herman4.mtx</t>
+          <t>05r0100.mtx</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.09328367285934755</v>
+        <v>0.9468308737415866</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1328,10 +1328,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.003734378390815813</v>
+        <v>-0.0001066606150576192</v>
       </c>
       <c r="H28" t="n">
-        <v>51.39839776983825</v>
+        <v>12.71131370248944</v>
       </c>
     </row>
     <row r="29">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>herman4.mtx</t>
+          <t>05r0100.mtx</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.09328367285934755</v>
+        <v>0.9468308737415866</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1360,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.003741359869588</v>
+        <v>0.9998933450729837</v>
       </c>
       <c r="H29" t="n">
-        <v>51.39839776983825</v>
+        <v>12.71131370248944</v>
       </c>
     </row>
     <row r="30">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>herman4.mtx</t>
+          <t>05r0100.mtx</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.2921572987703251</v>
+        <v>0.9146279331580516</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1392,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2065956015953726</v>
+        <v>-0.008359232430789839</v>
       </c>
       <c r="H30" t="n">
-        <v>29.27469695456634</v>
+        <v>13.03546914955385</v>
       </c>
     </row>
     <row r="31">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>herman4.mtx</t>
+          <t>05r0100.mtx</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.4118147744155649</v>
+        <v>0.9536505262769562</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1421,13 +1421,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>48.5379965626576</v>
+        <v>12.73230003396526</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6469627046201577</v>
+        <v>-0.001863170703394534</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.005107451649954889</v>
+        <v>2.198517782713977e-06</v>
       </c>
     </row>
     <row r="32">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>herman4.mtx</t>
+          <t>05r0100.mtx</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.3057762070321516</v>
+        <v>0.04089720730078254</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1456,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6196263509211271</v>
+        <v>-0.002771064433890858</v>
       </c>
       <c r="H32" t="n">
-        <v>49.26016921597018</v>
+        <v>12.74844707471176</v>
       </c>
     </row>
     <row r="33">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>herman4.mtx</t>
+          <t>05r0100.mtx</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.621544157502125</v>
+        <v>0.07924863152475486</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>11.55770565394861</v>
+        <v>-0.06677648525432155</v>
       </c>
       <c r="H33" t="n">
-        <v>30.05222191503553</v>
+        <v>12.88482229472583</v>
       </c>
     </row>
     <row r="34">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>herman4.mtx</t>
+          <t>05r0100.mtx</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.1681108756409893</v>
+        <v>0.04090444282975697</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02013763426848424</v>
+        <v>-0.0002165338169598209</v>
       </c>
       <c r="H34" t="n">
-        <v>38.30458616718172</v>
+        <v>12.74742521485896</v>
       </c>
     </row>
     <row r="35">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>herman4.mtx</t>
+          <t>05r0100.mtx</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.1681108756409893</v>
+        <v>0.04090444282975697</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.020341764355275</v>
+        <v>0.9997834896247951</v>
       </c>
       <c r="H35" t="n">
-        <v>38.30458616718172</v>
+        <v>12.74742521485896</v>
       </c>
     </row>
     <row r="36">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>herman4.mtx</t>
+          <t>05r0100.mtx</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.3671767046125903</v>
+        <v>0.07918161704112679</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3893639197464731</v>
+        <v>-0.00521531502946169</v>
       </c>
       <c r="H36" t="n">
-        <v>19.76166307338887</v>
+        <v>12.88389437141706</v>
       </c>
     </row>
     <row r="37">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>herman4.mtx</t>
+          <t>05r0100.mtx</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.5744328126139753</v>
+        <v>0.08675933815786924</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1613,13 +1613,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>33.47416434097988</v>
+        <v>12.8693228114638</v>
       </c>
       <c r="G37" t="n">
-        <v>2.929773405797755</v>
+        <v>-0.01726235161824638</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.05775367637191572</v>
+        <v>0.0003450306472465552</v>
       </c>
     </row>
     <row r="38">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>gr_30_30.mtx</t>
+          <t>bcsstm23.mtx</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>9.027113137662489e-05</v>
+        <v>0.5056080583310534</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.000621561417248111</v>
+        <v>32915.90892897897</v>
       </c>
       <c r="H38" t="n">
-        <v>11.76326327171478</v>
+        <v>7842034.964505798</v>
       </c>
     </row>
     <row r="39">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>gr_30_30.mtx</t>
+          <t>bcsstm23.mtx</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.01836394384755142</v>
+        <v>0.6481344316155619</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1680,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.3111516386656774</v>
+        <v>359397.7536756572</v>
       </c>
       <c r="H39" t="n">
-        <v>12.96751603763016</v>
+        <v>7364217.656969093</v>
       </c>
     </row>
     <row r="40">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>gr_30_30.mtx</t>
+          <t>bcsstm23.mtx</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.02049058073026302</v>
+        <v>0.5001900749658105</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0005262990704546447</v>
+        <v>0.004088965653244802</v>
       </c>
       <c r="H40" t="n">
-        <v>11.34623080877516</v>
+        <v>7842022.781029087</v>
       </c>
     </row>
     <row r="41">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>gr_30_30.mtx</t>
+          <t>bcsstm23.mtx</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1733,7 +1733,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.02049058073026302</v>
+        <v>0.5001900749658105</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1744,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.00052643759011</v>
+        <v>1.004097336879298</v>
       </c>
       <c r="H41" t="n">
-        <v>11.34623080877516</v>
+        <v>7842022.781029087</v>
       </c>
     </row>
     <row r="42">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>gr_30_30.mtx</t>
+          <t>bcsstm23.mtx</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.006664460970818066</v>
+        <v>0.6424185998418004</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01053458648468413</v>
+        <v>0.04468882478301842</v>
       </c>
       <c r="H42" t="n">
-        <v>11.23812552441755</v>
+        <v>7389367.361750506</v>
       </c>
     </row>
     <row r="43">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>gr_30_30.mtx</t>
+          <t>bcsstm23.mtx</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.003032040333223686</v>
+        <v>0.8448398069269917</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1805,13 +1805,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>12.02902997255393</v>
+        <v>6974215.319817497</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.01324452732218551</v>
+        <v>218246.8838963124</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0001216323573634525</v>
+        <v>-8825.284522254031</v>
       </c>
     </row>
     <row r="44">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>gr_30_30.mtx</t>
+          <t>bcsstm23.mtx</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1829,7 +1829,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.007690845650832456</v>
+        <v>0.6863846793529407</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.01985087126459053</v>
+        <v>-22871.35876629304</v>
       </c>
       <c r="H44" t="n">
-        <v>12.45045668264918</v>
+        <v>8489550.340566928</v>
       </c>
     </row>
     <row r="45">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>gr_30_30.mtx</t>
+          <t>bcsstm23.mtx</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.07744629417805672</v>
+        <v>0.7826150088713799</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1872,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.013839468594524</v>
+        <v>-186741.5519297037</v>
       </c>
       <c r="H45" t="n">
-        <v>14.94533708510654</v>
+        <v>8688712.816878704</v>
       </c>
     </row>
     <row r="46">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>gr_30_30.mtx</t>
+          <t>bcsstm23.mtx</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1893,7 +1893,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.003069369396837402</v>
+        <v>0.6872920150900205</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1904,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0006940259690164748</v>
+        <v>-0.002743751112375878</v>
       </c>
       <c r="H46" t="n">
-        <v>11.51598775958352</v>
+        <v>8490738.227814978</v>
       </c>
     </row>
     <row r="47">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>gr_30_30.mtx</t>
+          <t>bcsstm23.mtx</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1925,7 +1925,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.003069369396837402</v>
+        <v>0.6872920150900205</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1936,10 +1936,10 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1.000694266860765</v>
+        <v>0.9972600095324968</v>
       </c>
       <c r="H47" t="n">
-        <v>11.51598775958352</v>
+        <v>8490738.227814978</v>
       </c>
     </row>
     <row r="48">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>gr_30_30.mtx</t>
+          <t>bcsstm23.mtx</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.004723438761344238</v>
+        <v>0.7834019416537679</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01385659854483137</v>
+        <v>-0.02239881732991944</v>
       </c>
       <c r="H48" t="n">
-        <v>12.20649731734937</v>
+        <v>8695982.461746288</v>
       </c>
     </row>
     <row r="49">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>gr_30_30.mtx</t>
+          <t>bcsstm23.mtx</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.03762859395239395</v>
+        <v>0.9664987454552152</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1997,13 +1997,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>13.76720458180225</v>
+        <v>8995685.209173769</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1747623888120108</v>
+        <v>-157840.6570614531</v>
       </c>
       <c r="H49" t="n">
-        <v>0.003098230350948405</v>
+        <v>8435.581143447442</v>
       </c>
     </row>
     <row r="50">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>05r0100.mtx</t>
+          <t>dwt_1005.mtx</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.0221028306432919</v>
+        <v>0.5019528886441746</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2032,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.003203527498460723</v>
+        <v>0.01675642157169932</v>
       </c>
       <c r="H50" t="n">
-        <v>13.00129693644705</v>
+        <v>16.21183973818802</v>
       </c>
     </row>
     <row r="51">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>05r0100.mtx</t>
+          <t>dwt_1005.mtx</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2053,7 +2053,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.09166625594542105</v>
+        <v>0.6280726833142906</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.4585652722948954</v>
+        <v>0.1660399815159919</v>
       </c>
       <c r="H51" t="n">
-        <v>14.67474920907762</v>
+        <v>16.0055191530892</v>
       </c>
     </row>
     <row r="52">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>05r0100.mtx</t>
+          <t>dwt_1005.mtx</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.0257745209577248</v>
+        <v>0.5008834592883725</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.0001683623585137647</v>
+        <v>0.001027142524775572</v>
       </c>
       <c r="H52" t="n">
-        <v>12.8340232196614</v>
+        <v>16.21191609512548</v>
       </c>
     </row>
     <row r="53">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>05r0100.mtx</t>
+          <t>dwt_1005.mtx</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2117,7 +2117,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.0257745209577248</v>
+        <v>0.5008834592883725</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9998316518136328</v>
+        <v>1.001027670216315</v>
       </c>
       <c r="H53" t="n">
-        <v>12.8340232196614</v>
+        <v>16.21191609512548</v>
       </c>
     </row>
     <row r="54">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>05r0100.mtx</t>
+          <t>dwt_1005.mtx</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2149,7 +2149,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.0750773189339764</v>
+        <v>0.6269462127925869</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2160,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.02019742409236934</v>
+        <v>0.0101797105855257</v>
       </c>
       <c r="H54" t="n">
-        <v>13.77171390932254</v>
+        <v>16.00811241986005</v>
       </c>
     </row>
     <row r="55">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>05r0100.mtx</t>
+          <t>dwt_1005.mtx</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2181,7 +2181,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.03577673054283679</v>
+        <v>0.8356592632031493</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2189,13 +2189,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>13.38517110086409</v>
+        <v>15.76899048563926</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.01300456999421496</v>
+        <v>0.1193678337476338</v>
       </c>
       <c r="H55" t="n">
-        <v>4.188479699040282e-05</v>
+        <v>-0.005400600640838709</v>
       </c>
     </row>
     <row r="56">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>05r0100.mtx</t>
+          <t>dwt_1005.mtx</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.051572120990187</v>
+        <v>0.2092512905918695</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.076344847442275</v>
+        <v>-0.002570307987016783</v>
       </c>
       <c r="H56" t="n">
-        <v>14.60488221097303</v>
+        <v>16.43123705900321</v>
       </c>
     </row>
     <row r="57">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>05r0100.mtx</t>
+          <t>dwt_1005.mtx</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.1932952885948467</v>
+        <v>0.2889691199019068</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.844292881797204</v>
+        <v>-0.02433210913379585</v>
       </c>
       <c r="H57" t="n">
-        <v>18.10553933916229</v>
+        <v>16.46051473258293</v>
       </c>
     </row>
     <row r="58">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>05r0100.mtx</t>
+          <t>dwt_1005.mtx</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.02773794391320192</v>
+        <v>0.2091146480857755</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2288,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.002726849846251705</v>
+        <v>-0.0001564525255872695</v>
       </c>
       <c r="H58" t="n">
-        <v>13.57511224539343</v>
+        <v>16.43122087450428</v>
       </c>
     </row>
     <row r="59">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>05r0100.mtx</t>
+          <t>dwt_1005.mtx</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.02773794391320192</v>
+        <v>0.2091146480857755</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9972768646317487</v>
+        <v>0.999843559712471</v>
       </c>
       <c r="H59" t="n">
-        <v>13.57511224539343</v>
+        <v>16.43122087450428</v>
       </c>
     </row>
     <row r="60">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>05r0100.mtx</t>
+          <t>dwt_1005.mtx</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.1183521828754835</v>
+        <v>0.2888121746134026</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2352,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.07028444959633527</v>
+        <v>-0.001481156824020094</v>
       </c>
       <c r="H60" t="n">
-        <v>15.5663946900271</v>
+        <v>16.46053200549207</v>
       </c>
     </row>
     <row r="61">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>05r0100.mtx</t>
+          <t>dwt_1005.mtx</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.1309241578303171</v>
+        <v>0.5578449002969655</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2381,13 +2381,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>17.0569221046937</v>
+        <v>16.5423732763387</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4535817541685321</v>
+        <v>-0.03076904969900336</v>
       </c>
       <c r="H61" t="n">
-        <v>0.009927287019112031</v>
+        <v>0.001658749512469861</v>
       </c>
     </row>
     <row r="62">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>dwt_245.mtx</t>
+          <t>herman4.mtx</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.05790113942277197</v>
+        <v>0.4504956369694701</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2416,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.231583355802465</v>
+        <v>0.04998131781988358</v>
       </c>
       <c r="H62" t="n">
-        <v>16.07357998398506</v>
+        <v>62.80131593208806</v>
       </c>
     </row>
     <row r="63">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>dwt_245.mtx</t>
+          <t>herman4.mtx</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.2294748727705166</v>
+        <v>0.7501546597108824</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2448,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.281627103460301</v>
+        <v>2.464057087186871</v>
       </c>
       <c r="H63" t="n">
-        <v>31.74010141655564</v>
+        <v>56.17071344927255</v>
       </c>
     </row>
     <row r="64">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>dwt_245.mtx</t>
+          <t>herman4.mtx</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.04681970473819056</v>
+        <v>0.4302370871312877</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2480,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.005558551982960217</v>
+        <v>0.000789801693494947</v>
       </c>
       <c r="H64" t="n">
-        <v>10.20248465380508</v>
+        <v>62.73434082527331</v>
       </c>
     </row>
     <row r="65">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>dwt_245.mtx</t>
+          <t>herman4.mtx</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.04681970473819056</v>
+        <v>0.4302370871312877</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2512,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9944568681826198</v>
+        <v>1.00079011366898</v>
       </c>
       <c r="H65" t="n">
-        <v>10.20248465380508</v>
+        <v>62.73434082527331</v>
       </c>
     </row>
     <row r="66">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>dwt_245.mtx</t>
+          <t>herman4.mtx</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2533,7 +2533,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.2015703104118887</v>
+        <v>0.7282083816160017</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2544,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.182161962545284</v>
+        <v>0.03925589891238158</v>
       </c>
       <c r="H66" t="n">
-        <v>15.18502967069826</v>
+        <v>56.42624758938501</v>
       </c>
     </row>
     <row r="67">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>dwt_245.mtx</t>
+          <t>herman4.mtx</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.1485781418043332</v>
+        <v>0.7362066432967737</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2573,13 +2573,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>25.63030105593422</v>
+        <v>59.60769216508493</v>
       </c>
       <c r="G67" t="n">
-        <v>-1.378389884436366</v>
+        <v>0.2186303516180383</v>
       </c>
       <c r="H67" t="n">
-        <v>0.02340421487007961</v>
+        <v>-0.001606181274268141</v>
       </c>
     </row>
     <row r="68">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>dwt_245.mtx</t>
+          <t>herman4.mtx</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2597,7 +2597,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.08016844286533878</v>
+        <v>0.559953221525049</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4359564824048081</v>
+        <v>0.1473231839705404</v>
       </c>
       <c r="H68" t="n">
-        <v>18.97747720103272</v>
+        <v>62.02677576705676</v>
       </c>
     </row>
     <row r="69">
@@ -2620,7 +2620,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>dwt_245.mtx</t>
+          <t>herman4.mtx</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2629,7 +2629,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.2743338995460052</v>
+        <v>0.7642285713989212</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2640,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.574290564991381</v>
+        <v>3.099431480694323</v>
       </c>
       <c r="H69" t="n">
-        <v>36.33421813993961</v>
+        <v>56.10652368570659</v>
       </c>
     </row>
     <row r="70">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>dwt_245.mtx</t>
+          <t>herman4.mtx</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.069283073178443</v>
+        <v>0.538104210911848</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2672,10 +2672,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.01081308792154298</v>
+        <v>0.002315706094106667</v>
       </c>
       <c r="H70" t="n">
-        <v>11.0371688312131</v>
+        <v>61.99549153955965</v>
       </c>
     </row>
     <row r="71">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>dwt_245.mtx</t>
+          <t>herman4.mtx</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.069283073178443</v>
+        <v>0.538104210911848</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2704,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9892451633658372</v>
+        <v>1.002318389412323</v>
       </c>
       <c r="H71" t="n">
-        <v>11.0371688312131</v>
+        <v>61.99549153955965</v>
       </c>
     </row>
     <row r="72">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>dwt_245.mtx</t>
+          <t>herman4.mtx</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.2485675517225241</v>
+        <v>0.7425900839612064</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2736,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2431553499407962</v>
+        <v>0.04898916061623015</v>
       </c>
       <c r="H72" t="n">
-        <v>17.23134719971213</v>
+        <v>56.44146309332123</v>
       </c>
     </row>
     <row r="73">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>dwt_245.mtx</t>
+          <t>herman4.mtx</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.2006906274216401</v>
+        <v>0.8045808892920039</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2765,13 +2765,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>32.13020054221471</v>
+        <v>57.90391023516214</v>
       </c>
       <c r="G73" t="n">
-        <v>-2.568830537731618</v>
+        <v>0.622208219057876</v>
       </c>
       <c r="H73" t="n">
-        <v>0.05924650153685584</v>
+        <v>-0.01079284170653033</v>
       </c>
     </row>
     <row r="74">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>fidap005.mtx</t>
+          <t>dwt_1242.mtx</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.2762005567052311</v>
+        <v>0.7191113087771684</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>29077.82711028164</v>
+        <v>0.001761692369226648</v>
       </c>
       <c r="H74" t="n">
-        <v>3421769.248629499</v>
+        <v>9.245567265871715</v>
       </c>
     </row>
     <row r="75">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>fidap005.mtx</t>
+          <t>dwt_1242.mtx</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.6133953323029498</v>
+        <v>0.9558644695854237</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2832,10 +2832,10 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>645328.6061902632</v>
+        <v>0.08085086586518317</v>
       </c>
       <c r="H75" t="n">
-        <v>2238839.980585044</v>
+        <v>9.035279492646803</v>
       </c>
     </row>
     <row r="76">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>fidap005.mtx</t>
+          <t>dwt_1242.mtx</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.08054204275068311</v>
+        <v>0.7163756230604066</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2864,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.04597914905114858</v>
+        <v>0.0001892543762774525</v>
       </c>
       <c r="H76" t="n">
-        <v>1052539.685907262</v>
+        <v>9.24552338990444</v>
       </c>
     </row>
     <row r="77">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>fidap005.mtx</t>
+          <t>dwt_1242.mtx</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2885,7 +2885,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.08054204275068311</v>
+        <v>0.7163756230604066</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2896,10 +2896,10 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1.047052578689563</v>
+        <v>1.000189272286017</v>
       </c>
       <c r="H77" t="n">
-        <v>1052539.685907262</v>
+        <v>9.24552338990444</v>
       </c>
     </row>
     <row r="78">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>fidap005.mtx</t>
+          <t>dwt_1242.mtx</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.2812466042274068</v>
+        <v>0.9546216465232125</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>1.279541161875568</v>
+        <v>0.008696523447179704</v>
       </c>
       <c r="H78" t="n">
-        <v>77087.39221767348</v>
+        <v>9.03862732555822</v>
       </c>
     </row>
     <row r="79">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>fidap005.mtx</t>
+          <t>dwt_1242.mtx</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.5002921987079281</v>
+        <v>0.9458481781089336</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2957,13 +2957,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2608696.478703828</v>
+        <v>9.163046781593144</v>
       </c>
       <c r="G79" t="n">
-        <v>132874.3509305803</v>
+        <v>0.00593514214883235</v>
       </c>
       <c r="H79" t="n">
-        <v>-2256.446170006492</v>
+        <v>-3.794045254186948e-05</v>
       </c>
     </row>
     <row r="80">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>fidap005.mtx</t>
+          <t>dwt_1242.mtx</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.0009037635267965904</v>
+        <v>0.7874468006916128</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>16838.54613424831</v>
+        <v>0.005119335762724632</v>
       </c>
       <c r="H80" t="n">
-        <v>4540490.453449974</v>
+        <v>9.240847873764372</v>
       </c>
     </row>
     <row r="81">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>fidap005.mtx</t>
+          <t>dwt_1242.mtx</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.02001318823732436</v>
+        <v>0.9495657994705485</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3024,10 +3024,10 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>820246.7733705459</v>
+        <v>0.09731805223080249</v>
       </c>
       <c r="H81" t="n">
-        <v>2760215.336175373</v>
+        <v>9.064796963498605</v>
       </c>
     </row>
     <row r="82">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>fidap005.mtx</t>
+          <t>dwt_1242.mtx</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.1115083206175009</v>
+        <v>0.785406880088627</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3056,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1001767766921962</v>
+        <v>0.0005491118407688352</v>
       </c>
       <c r="H82" t="n">
-        <v>562080.0159282913</v>
+        <v>9.241013549209319</v>
       </c>
     </row>
     <row r="83">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>fidap005.mtx</t>
+          <t>dwt_1242.mtx</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3077,7 +3077,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.1115083206175009</v>
+        <v>0.785406880088627</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1.105366303804169</v>
+        <v>1.000549262630275</v>
       </c>
       <c r="H83" t="n">
-        <v>562080.0159282913</v>
+        <v>9.241013549209319</v>
       </c>
     </row>
     <row r="84">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>fidap005.mtx</t>
+          <t>dwt_1242.mtx</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3109,7 +3109,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.3394527144248063</v>
+        <v>0.9484605524206384</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1.809307001012384</v>
+        <v>0.01044602274899979</v>
       </c>
       <c r="H84" t="n">
-        <v>29421.58529348201</v>
+        <v>9.067949812949317</v>
       </c>
     </row>
     <row r="85">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>fidap005.mtx</t>
+          <t>dwt_1242.mtx</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.05973841584002173</v>
+        <v>0.9760343597285714</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1634154.409463521</v>
+        <v>9.137649763519223</v>
       </c>
       <c r="G85" t="n">
-        <v>561776.5543817085</v>
+        <v>0.01749132614415991</v>
       </c>
       <c r="H85" t="n">
-        <v>-17578.64542733743</v>
+        <v>-0.0002945711995579774</v>
       </c>
     </row>
     <row r="86">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>dwt_1242.mtx</t>
+          <t>dwt_1007.mtx</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.02757369076482334</v>
+        <v>0.6650730475091795</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3184,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1566447019877712</v>
+        <v>0.0008551751564673415</v>
       </c>
       <c r="H86" t="n">
-        <v>20.43940358043508</v>
+        <v>8.871372033654325</v>
       </c>
     </row>
     <row r="87">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>dwt_1242.mtx</t>
+          <t>dwt_1007.mtx</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3205,7 +3205,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.1503848214793355</v>
+        <v>0.8995222168396658</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3216,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>-11.97605993579601</v>
+        <v>0.02534032547217188</v>
       </c>
       <c r="H87" t="n">
-        <v>56.26759511995248</v>
+        <v>8.815320230115294</v>
       </c>
     </row>
     <row r="88">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>dwt_1242.mtx</t>
+          <t>dwt_1007.mtx</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.02200661474289266</v>
+        <v>0.6641627123132186</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3248,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.001655993541136978</v>
+        <v>9.620915332497082e-05</v>
       </c>
       <c r="H88" t="n">
-        <v>10.53300269010044</v>
+        <v>8.871365573841247</v>
       </c>
     </row>
     <row r="89">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>dwt_1242.mtx</t>
+          <t>dwt_1007.mtx</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3269,7 +3269,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.02200661474289266</v>
+        <v>0.6641627123132186</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9983453768596047</v>
+        <v>1.000096213781574</v>
       </c>
       <c r="H89" t="n">
-        <v>10.53300269010044</v>
+        <v>8.871365573841247</v>
       </c>
     </row>
     <row r="90">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>dwt_1242.mtx</t>
+          <t>dwt_1007.mtx</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3301,7 +3301,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.1350663062950305</v>
+        <v>0.8988871516244913</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3312,10 +3312,10 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1343071792233339</v>
+        <v>0.00285179021263361</v>
       </c>
       <c r="H90" t="n">
-        <v>15.82596289926008</v>
+        <v>8.815571421198536</v>
       </c>
     </row>
     <row r="91">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>dwt_1242.mtx</t>
+          <t>dwt_1007.mtx</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.07244506122326173</v>
+        <v>0.9091272063425947</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3341,13 +3341,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>34.37502848839528</v>
+        <v>8.842549508375454</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.9380816127145113</v>
+        <v>0.003179761716637246</v>
       </c>
       <c r="H91" t="n">
-        <v>0.007372046327610756</v>
+        <v>-3.522100848742327e-05</v>
       </c>
     </row>
     <row r="92">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>dwt_1242.mtx</t>
+          <t>dwt_1007.mtx</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3365,7 +3365,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.07805227296045063</v>
+        <v>0.5663773888309865</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3376,10 +3376,10 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.249175475774003</v>
+        <v>0.0006702377134536849</v>
       </c>
       <c r="H92" t="n">
-        <v>41.01475590315647</v>
+        <v>8.889900737970564</v>
       </c>
     </row>
     <row r="93">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>dwt_1242.mtx</t>
+          <t>dwt_1007.mtx</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.2716750878906701</v>
+        <v>0.8005175324667441</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>-29.08054897780873</v>
+        <v>0.01599907089725633</v>
       </c>
       <c r="H93" t="n">
-        <v>95.35038782256352</v>
+        <v>8.857509923239158</v>
       </c>
     </row>
     <row r="94">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>dwt_1242.mtx</t>
+          <t>dwt_1007.mtx</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.07094410601065274</v>
+        <v>0.5658356782872345</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3440,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01409485653584203</v>
+        <v>7.53201401171613e-05</v>
       </c>
       <c r="H94" t="n">
-        <v>13.38937697255356</v>
+        <v>8.889894961968993</v>
       </c>
     </row>
     <row r="95">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>dwt_1242.mtx</t>
+          <t>dwt_1007.mtx</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.07094410601065274</v>
+        <v>0.5658356782872345</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9860040109020063</v>
+        <v>1.00007532297675</v>
       </c>
       <c r="H95" t="n">
-        <v>13.38937697255356</v>
+        <v>8.889894961968993</v>
       </c>
     </row>
     <row r="96">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>dwt_1242.mtx</t>
+          <t>dwt_1007.mtx</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3493,7 +3493,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.2574871369200648</v>
+        <v>0.800031715406112</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3504,10 +3504,10 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.3350636300406709</v>
+        <v>0.00179826208729258</v>
       </c>
       <c r="H96" t="n">
-        <v>25.18314474573764</v>
+        <v>8.857585804786261</v>
       </c>
     </row>
     <row r="97">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>dwt_1242.mtx</t>
+          <t>dwt_1007.mtx</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.1956012446928618</v>
+        <v>0.8457090467473927</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3533,13 +3533,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>80.7079772900621</v>
+        <v>8.868310530072936</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.35582491991333</v>
+        <v>0.002896032342075519</v>
       </c>
       <c r="H97" t="n">
-        <v>0.1607013011615612</v>
+        <v>-4.451589257243509e-05</v>
       </c>
     </row>
     <row r="98">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>bcsstm23.mtx</t>
+          <t>dwt_245.mtx</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.09437774189707314</v>
+        <v>0.5523584046707981</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>-485381.1222997511</v>
+        <v>0.003475030716196202</v>
       </c>
       <c r="H98" t="n">
-        <v>13624157.97673906</v>
+        <v>8.396963320105652</v>
       </c>
     </row>
     <row r="99">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>bcsstm23.mtx</t>
+          <t>dwt_245.mtx</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3589,7 +3589,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.2775000223777146</v>
+        <v>0.7987615263810328</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>-5021212.666323091</v>
+        <v>0.08818713158564272</v>
       </c>
       <c r="H99" t="n">
-        <v>19124039.21621257</v>
+        <v>8.213475125809529</v>
       </c>
     </row>
     <row r="100">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>bcsstm23.mtx</t>
+          <t>dwt_245.mtx</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.006089121135186674</v>
+        <v>0.5494521676266184</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.007607571160263111</v>
+        <v>0.0004116506292178821</v>
       </c>
       <c r="H100" t="n">
-        <v>8822816.764645258</v>
+        <v>8.396742384356845</v>
       </c>
     </row>
     <row r="101">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>bcsstm23.mtx</t>
+          <t>dwt_245.mtx</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3653,7 +3653,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.006089121135186674</v>
+        <v>0.5494521676266184</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3664,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0.9924212931670283</v>
+        <v>1.000411735368965</v>
       </c>
       <c r="H101" t="n">
-        <v>8822816.764645258</v>
+        <v>8.396742384356845</v>
       </c>
     </row>
     <row r="102">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>bcsstm23.mtx</t>
+          <t>dwt_245.mtx</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.06541786606692013</v>
+        <v>0.7961148449942764</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3696,10 +3696,10 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.150433970094816</v>
+        <v>0.01045683324539373</v>
       </c>
       <c r="H102" t="n">
-        <v>11034838.7898217</v>
+        <v>8.215938100566452</v>
       </c>
     </row>
     <row r="103">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>bcsstm23.mtx</t>
+          <t>dwt_245.mtx</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.263132739055105</v>
+        <v>0.8606945950076306</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3725,13 +3725,13 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>21700076.83334018</v>
+        <v>8.2731977778116</v>
       </c>
       <c r="G103" t="n">
-        <v>-3177354.074500121</v>
+        <v>0.0155999359686636</v>
       </c>
       <c r="H103" t="n">
-        <v>158351.3501294336</v>
+        <v>-0.0002287717972163692</v>
       </c>
     </row>
     <row r="104">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>bcsstm23.mtx</t>
+          <t>dwt_245.mtx</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3749,7 +3749,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.152243472411465</v>
+        <v>0.3865987833025896</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3760,10 +3760,10 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>-1070951.379557348</v>
+        <v>0.002364500696368224</v>
       </c>
       <c r="H104" t="n">
-        <v>16664853.42065299</v>
+        <v>8.461520916628508</v>
       </c>
     </row>
     <row r="105">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>bcsstm23.mtx</t>
+          <t>dwt_245.mtx</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.3563535804404633</v>
+        <v>0.6012911007805063</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3792,10 +3792,10 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>-7293177.495031303</v>
+        <v>0.0489802907705745</v>
       </c>
       <c r="H105" t="n">
-        <v>21843457.66082138</v>
+        <v>8.368256263753857</v>
       </c>
     </row>
     <row r="106">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>bcsstm23.mtx</t>
+          <t>dwt_245.mtx</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.0228736580006131</v>
+        <v>0.385292808607371</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3824,10 +3824,10 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.02579464186703022</v>
+        <v>0.0002791135380023933</v>
       </c>
       <c r="H106" t="n">
-        <v>9881235.320810085</v>
+        <v>8.461376615628321</v>
       </c>
     </row>
     <row r="107">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>bcsstm23.mtx</t>
+          <t>dwt_245.mtx</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.0228736580006131</v>
+        <v>0.385292808607371</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3856,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0.9745351977898564</v>
+        <v>1.00027915249381</v>
       </c>
       <c r="H107" t="n">
-        <v>9881235.320810085</v>
+        <v>8.461376615628321</v>
       </c>
     </row>
     <row r="108">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>bcsstm23.mtx</t>
+          <t>dwt_245.mtx</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3877,7 +3877,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.1112225028952029</v>
+        <v>0.5997391197790672</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3888,10 +3888,10 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.2531825842751423</v>
+        <v>0.005784108157700614</v>
       </c>
       <c r="H108" t="n">
-        <v>12663366.26343932</v>
+        <v>8.36867842308002</v>
       </c>
     </row>
     <row r="109">
@@ -3900,7 +3900,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>bcsstm23.mtx</t>
+          <t>dwt_245.mtx</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3909,7 +3909,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.3860171397674622</v>
+        <v>0.7126554677932113</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3917,13 +3917,13 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>29019327.30713485</v>
+        <v>8.374525695206636</v>
       </c>
       <c r="G109" t="n">
-        <v>-6773016.25024128</v>
+        <v>0.01323890337410219</v>
       </c>
       <c r="H109" t="n">
-        <v>475172.0725569943</v>
+        <v>-0.0002718600669433487</v>
       </c>
     </row>
   </sheetData>
